--- a/AAII_Financials/Yearly/LFUS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LFUS_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>LFUS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="E7" s="2">
         <v>43463</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43099</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42371</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42000</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41636</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41272</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1503900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1718500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1221500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1056200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>867900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>852000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>757900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>667900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>665000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>962400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1065900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>715000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>643000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>537400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1053700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>461600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>409400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>408300</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>541400</v>
+      </c>
+      <c r="E10" s="3">
         <v>652500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>506500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>413100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>330500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-201700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>296200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>258500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>256700</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,38 +826,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>80500</v>
+      </c>
+      <c r="E12" s="3">
         <v>87300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>50500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>42200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>30800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>31100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>19400</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,69 +889,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>14800</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2300</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E15" s="3">
         <v>52200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>24700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>19300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>6100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6600</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,68 +970,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1311100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1493400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1003000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>925500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>763700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>718200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>638700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>568400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>551100</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>192800</v>
+      </c>
+      <c r="E18" s="3">
         <v>225000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>218500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>130600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>104200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>133800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>119200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>99500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>113900</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1019,158 +1051,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E20" s="3">
         <v>2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>280700</v>
+      </c>
+      <c r="E21" s="3">
         <v>330700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>280400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>185000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>152600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>178400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>161600</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>149000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E22" s="3">
         <v>22600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>13400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1700</v>
       </c>
       <c r="K22" s="3">
         <v>1700</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>165900</v>
+      </c>
+      <c r="E23" s="3">
         <v>204900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>204000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>123300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>106900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>131600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>124200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>115100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E24" s="3">
         <v>37100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>37500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>26100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>33500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>35500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>24700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28100</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1198,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E26" s="3">
         <v>167800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>166600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>104500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>80900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>98100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>88800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>75300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>87000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E27" s="3">
         <v>167800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>166600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>104500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>80900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>98100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>88700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>75200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>86400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1288,20 +1345,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-3200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-47000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -1318,9 +1378,12 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,69 +1444,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E33" s="3">
         <v>164600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>119500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>104500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>80900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>98100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>88700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>75200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>86400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E35" s="3">
         <v>164600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>119500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>104500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>80900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>98100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>88700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>75200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>86400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="E38" s="2">
         <v>43463</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43099</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42371</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42000</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41636</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41272</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,38 +1647,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>531100</v>
+      </c>
+      <c r="E41" s="3">
         <v>489700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>429700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>275100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>328800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>297600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>305200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>235400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>164000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1604,236 +1693,260 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>3700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>4300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>6900</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>14000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>207100</v>
+      </c>
+      <c r="E43" s="3">
         <v>235200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>184400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>385800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>287300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>135400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>127900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>92100</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>237500</v>
+      </c>
+      <c r="E44" s="3">
         <v>258200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>140800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>114100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>98600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>97400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>92600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>75600</v>
       </c>
       <c r="K44" s="3">
         <v>75600</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>75600</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E45" s="3">
         <v>49300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>37500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>36900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>33000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>33900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32700</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1004400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1032500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>792300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>612100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>583900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>571500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>565600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>445500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>378400</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E47" s="3">
         <v>25400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>13900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>15200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>12100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>12300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>19000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>29700</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>366500</v>
+      </c>
+      <c r="E48" s="3">
         <v>339900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>250600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>217200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>162600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>158600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>150200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>120900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>118900</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1141800</v>
+      </c>
+      <c r="E49" s="3">
         <v>1188200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>657300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>829600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>393200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>299900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>284800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>182400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>204900</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,39 +2007,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E52" s="3">
         <v>28300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>28900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>31400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>28700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2559900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2614300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1740100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1491200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1065500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1070800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1024400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>777700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>678400</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,38 +2139,42 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>117300</v>
+      </c>
+      <c r="E57" s="3">
         <v>126300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>101800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>90700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>51700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>50800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2049,149 +2182,164 @@
         <v>10000</v>
       </c>
       <c r="E58" s="3">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="F58" s="3">
         <v>6300</v>
       </c>
       <c r="G58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H58" s="3">
         <v>87000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>88500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>126000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>84000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>85000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>98200</v>
+      </c>
+      <c r="E59" s="3">
         <v>159000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>116700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>90600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>72400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>65200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>48900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>44200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>44300</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>225600</v>
+      </c>
+      <c r="E60" s="3">
         <v>295300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>224800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>187500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>211000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>204500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>208700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>155400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>149300</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>669200</v>
+      </c>
+      <c r="E61" s="3">
         <v>684700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>489400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>447900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>83800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>106700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>93800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>169200</v>
+      </c>
+      <c r="E62" s="3">
         <v>156000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>98400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>40800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>31400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>32000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>35000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>34800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>28000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1136100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>812700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>676400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>326400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>343300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>337600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>190300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>177500</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>950900</v>
+      </c>
+      <c r="E72" s="3">
         <v>856500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>722100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>634400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>557800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>523300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>445100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>435300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>376600</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1495900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1478200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>927400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>814800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>739100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>727500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>686800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>587400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>501000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="E80" s="2">
         <v>43463</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43099</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42371</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42000</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41636</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41272</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E81" s="3">
         <v>164600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>119500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>104500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>80900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>98100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>88700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>75200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>86400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,38 +2900,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>92500</v>
+      </c>
+      <c r="E83" s="3">
         <v>103200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>63000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>53100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>41600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>41900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34500</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>32300</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,39 +3095,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>245300</v>
+      </c>
+      <c r="E89" s="3">
         <v>331800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>269200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>180100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>165800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>153100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>117400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>116200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>120800</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,38 +3146,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-61900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-74800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-65900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-46200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-44000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-32300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-35000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-22500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17600</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,39 +3242,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-382200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-96100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-511200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-44200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-104000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-185600</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-48600</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,38 +3293,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-40000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-31800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-27900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-24300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-21200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-18700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-16600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-14500</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,97 +3422,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-146300</v>
+      </c>
+      <c r="E100" s="3">
         <v>121900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-24700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>284200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-67700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-43300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>142200</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14100</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-11400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>6200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-22800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-13500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4200</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3800</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E102" s="3">
         <v>60100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>154600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-53700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>31200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>69800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>71400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>54300</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LFUS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LFUS_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E7" s="2">
         <v>43827</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43463</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43099</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42371</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42000</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41636</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41272</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1445700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1503900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1718500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1221500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1056200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>867900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>852000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>757900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>667900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>665000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>962400</v>
+        <v>944500</v>
       </c>
       <c r="E9" s="3">
-        <v>1065900</v>
+        <v>957600</v>
       </c>
       <c r="F9" s="3">
+        <v>1065100</v>
+      </c>
+      <c r="G9" s="3">
         <v>715000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>643000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>537400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1053700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>461600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>409400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>408300</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>541400</v>
+        <v>501200</v>
       </c>
       <c r="E10" s="3">
-        <v>652500</v>
+        <v>546300</v>
       </c>
       <c r="F10" s="3">
+        <v>653400</v>
+      </c>
+      <c r="G10" s="3">
         <v>506500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>413100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>330500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-201700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>296200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>258500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>256700</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,41 +839,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>80500</v>
+        <v>52500</v>
       </c>
       <c r="E12" s="3">
+        <v>80000</v>
+      </c>
+      <c r="F12" s="3">
         <v>87300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>50500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>42200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>30800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>31100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>19400</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,42 +908,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
+      <c r="D14" s="3">
+        <v>43900</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>12600</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>14800</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2300</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -935,32 +957,35 @@
         <v>40000</v>
       </c>
       <c r="E15" s="3">
+        <v>40000</v>
+      </c>
+      <c r="F15" s="3">
         <v>52200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>24700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>19300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>12500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6600</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1283300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1311100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1493400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1003000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>925500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>763700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>718200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>638700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>568400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>551100</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>162400</v>
+      </c>
+      <c r="E18" s="3">
         <v>192800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>225000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>218500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>130600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>104200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>133800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>119200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>99500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>113900</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1052,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>278500</v>
+      </c>
+      <c r="E21" s="3">
         <v>280700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>330700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>280400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>185000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>152600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>178400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>161600</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>149000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E22" s="3">
         <v>22300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>22600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2900</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1700</v>
       </c>
       <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>161300</v>
+      </c>
+      <c r="E23" s="3">
         <v>165900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>204900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>204000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>123300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>106900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>131600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>124200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>115100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E24" s="3">
         <v>26800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>37100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>37500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>26100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>33500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>35500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>24700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28100</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1249,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E26" s="3">
         <v>139100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>167800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>166600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>104500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>80900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>98100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>88800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>75300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>87000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E27" s="3">
         <v>139100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>167800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>166600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>104500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>80900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>98100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>88700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>75200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>86400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1348,23 +1405,26 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-3200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-47000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
@@ -1381,9 +1441,12 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E32" s="3">
         <v>4600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E33" s="3">
         <v>139100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>164600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>119500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>104500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>80900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>98100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>88700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>75200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>86400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E35" s="3">
         <v>139100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>164600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>119500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>104500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>80900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>98100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>88700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>75200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>86400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E38" s="2">
         <v>43827</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43463</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43099</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42371</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42000</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41636</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41272</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,46 +1733,50 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>687500</v>
+      </c>
+      <c r="E41" s="3">
         <v>531100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>489700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>429700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>275100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>328800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>297600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>305200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>235400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>164000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1696,257 +1785,281 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>3700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>4200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>4300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>6900</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>14000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>235800</v>
+      </c>
+      <c r="E43" s="3">
         <v>207100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>235200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>184400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>385800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>287300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>135400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>127900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>92100</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E44" s="3">
         <v>237500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>258200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>140800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>114100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>98600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>97400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>92600</v>
-      </c>
-      <c r="K44" s="3">
-        <v>75600</v>
       </c>
       <c r="L44" s="3">
         <v>75600</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>75600</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E45" s="3">
         <v>28600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>49300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>37500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>36900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>33000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>33900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32700</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1217300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1004400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1032500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>792300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>612100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>583900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>571500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>565600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>445500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>378400</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E47" s="3">
         <v>24100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>25400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>13900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>15200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>12100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>12300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>19000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>29700</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>361800</v>
+      </c>
+      <c r="E48" s="3">
         <v>366500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>339900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>250600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>217200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>162600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>158600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>150200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>120900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>118900</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1100400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1141800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1188200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>657300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>829600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>393200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>299900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>284800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>182400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>204900</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E52" s="3">
         <v>23000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>28300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>28900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>31400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>22400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>28700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2747600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2559900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2614300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1740100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1491200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1065500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1070800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1024400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>777700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>678400</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,206 +2269,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E57" s="3">
         <v>117300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>126300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>101800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>90700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>51700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>50800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>10000</v>
       </c>
       <c r="F58" s="3">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G58" s="3">
         <v>6300</v>
       </c>
       <c r="H58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I58" s="3">
         <v>87000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>88500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>126000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>84000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>85000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>129700</v>
+      </c>
+      <c r="E59" s="3">
         <v>98200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>159000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>116700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>90600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>72400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>65200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>48900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>44200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>44300</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>275600</v>
+      </c>
+      <c r="E60" s="3">
         <v>225600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>295300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>224800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>187500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>211000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>204500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>208700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>155400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>149300</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>687000</v>
+      </c>
+      <c r="E61" s="3">
         <v>669200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>684700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>489400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>447900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>83800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>106700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>93800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>176100</v>
+      </c>
+      <c r="E62" s="3">
         <v>169200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>156000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>98400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>40800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>31400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>32000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>35000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>28000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1139000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1064000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1136100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>812700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>676400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>326400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>343300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>337600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>190300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>177500</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1034000</v>
+      </c>
+      <c r="E72" s="3">
         <v>950900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>856500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>722100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>634400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>557800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>523300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>445100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>435300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>376600</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1608600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1495900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1478200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>927400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>814800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>739100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>727500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>686800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>587400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>501000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E80" s="2">
         <v>43827</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43463</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43099</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42371</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42000</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41636</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41272</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E81" s="3">
         <v>139100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>164600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>119500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>104500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>80900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>98100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>88700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>75200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>86400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>96200</v>
+      </c>
+      <c r="E83" s="3">
         <v>92500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>103200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>63000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>53100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>41600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>41900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34500</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32300</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E89" s="3">
         <v>245300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>331800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>269200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>180100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>165800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>153100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>117400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>116200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>120800</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-61900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-74800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-65900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-46200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-44000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-32300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-35000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17600</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-56500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-382200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-96100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-511200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-44200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-104000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-185600</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-48600</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,41 +3526,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-44700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-40000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-31800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-27900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-24300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-21200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-18700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-16600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-14500</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-67800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-146300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>121900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-24700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>284200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-67700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-43300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>142200</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14100</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-11400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-22800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-13500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4200</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3800</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>156400</v>
+      </c>
+      <c r="E102" s="3">
         <v>41400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>60100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>154600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-53700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>31200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>69800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>71400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>54300</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LFUS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LFUS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>LFUS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44191</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43463</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43099</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42371</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42000</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41636</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41272</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2079900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1445700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1503900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1718500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1221500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1056200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>867900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>852000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>757900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>667900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>665000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1308000</v>
+      </c>
+      <c r="E9" s="3">
         <v>944500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>957600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1065100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>715000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>643000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>537400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1053700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>461600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>409400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>408300</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>771900</v>
+      </c>
+      <c r="E10" s="3">
         <v>501200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>546300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>653400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>506500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>413100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>330500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-201700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>296200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>258500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>256700</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,44 +853,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E12" s="3">
         <v>52500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>80000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>87300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>50500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>42200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>30800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>31100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>19400</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,81 +928,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>43900</v>
+        <v>8900</v>
       </c>
       <c r="E14" s="3">
+        <v>44000</v>
+      </c>
+      <c r="F14" s="3">
         <v>13000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12600</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>14800</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2300</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>40000</v>
+        <v>42700</v>
       </c>
       <c r="E15" s="3">
         <v>40000</v>
       </c>
       <c r="F15" s="3">
+        <v>40000</v>
+      </c>
+      <c r="G15" s="3">
         <v>52200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>24700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>19300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>11900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6600</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1023,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1283300</v>
+        <v>1694800</v>
       </c>
       <c r="E17" s="3">
+        <v>1283400</v>
+      </c>
+      <c r="F17" s="3">
         <v>1311100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1493400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1003000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>925500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>763700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>718200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>638700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>568400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>551100</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>162400</v>
+        <v>385100</v>
       </c>
       <c r="E18" s="3">
+        <v>162300</v>
+      </c>
+      <c r="F18" s="3">
         <v>192800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>225000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>218500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>130600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>104200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>133800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>119200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>99500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>113900</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1085,188 +1118,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>20000</v>
+        <v>-25600</v>
       </c>
       <c r="E20" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>458200</v>
+      </c>
+      <c r="E21" s="3">
         <v>278500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>280700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>330700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>280400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>185000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>152600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>178400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>161600</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>149000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E22" s="3">
         <v>21100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>22300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>22600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>13400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1700</v>
       </c>
       <c r="M22" s="3">
         <v>1700</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>341000</v>
+      </c>
+      <c r="E23" s="3">
         <v>161300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>165900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>204900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>204000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>123300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>106900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>131600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>124200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>115100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E24" s="3">
         <v>31300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>26800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>37100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>37500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>18800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>26100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>33500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>24700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>28100</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,81 +1349,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>283800</v>
+      </c>
+      <c r="E26" s="3">
         <v>130000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>139100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>167800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>166600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>104500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>80900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>98100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>88800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>75300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>87000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>283800</v>
+      </c>
+      <c r="E27" s="3">
         <v>130000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>139100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>167800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>166600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>104500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>80900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>98100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>88700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>75200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>86400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1408,26 +1466,29 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-3200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-47000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
@@ -1444,9 +1505,12 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1544,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1583,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-20000</v>
+        <v>25600</v>
       </c>
       <c r="E32" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="F32" s="3">
         <v>4600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>283800</v>
+      </c>
+      <c r="E33" s="3">
         <v>130000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>139100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>164600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>119500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>104500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>80900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>98100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>88700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>75200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>86400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1700,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>283800</v>
+      </c>
+      <c r="E35" s="3">
         <v>130000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>139100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>164600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>119500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>104500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>80900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>98100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>88700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>75200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>86400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44191</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43463</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43099</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42371</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42000</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41636</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41272</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1803,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,53 +1820,57 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>478500</v>
+      </c>
+      <c r="E41" s="3">
         <v>687500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>531100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>489700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>429700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>275100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>328800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>297600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>305200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>235400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>164000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>100</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
@@ -1788,278 +1878,302 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>3700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>4200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>4300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6900</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>14000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>277200</v>
+      </c>
+      <c r="E43" s="3">
         <v>235800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>207100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>235200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>184400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>385800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>287300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>135400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>127900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>92100</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>445700</v>
+      </c>
+      <c r="E44" s="3">
         <v>258000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>237500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>258200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>140800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>114100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>98600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>97400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>92600</v>
-      </c>
-      <c r="L44" s="3">
-        <v>75600</v>
       </c>
       <c r="M44" s="3">
         <v>75600</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>75600</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E45" s="3">
         <v>35900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>49300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>37500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>31500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>36900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>33000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>33900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32700</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1270200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1217300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1004400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1032500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>792300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>612100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>583900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>571500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>565600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>445500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>378400</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E47" s="3">
         <v>30500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>24100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>25400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>11000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>13900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>15200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>12100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>19000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>29700</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>467500</v>
+      </c>
+      <c r="E48" s="3">
         <v>361800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>366500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>339900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>250600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>217200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>162600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>158600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>150200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>120900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>118900</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1319300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1100400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1141800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1188200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>657300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>829600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>393200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>299900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>284800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>182400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>204900</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2207,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,45 +2246,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E52" s="3">
         <v>37500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>23000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>28300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>28900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>31400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>22400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>28700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2324,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3151700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2747600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2559900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2614300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1740100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1491200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1065500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1070800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1024400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>777700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>678400</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2383,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,224 +2400,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E57" s="3">
         <v>146000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>117300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>126300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>101800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>90700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>51700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>50800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="E58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>10000</v>
       </c>
       <c r="G58" s="3">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="H58" s="3">
         <v>6300</v>
       </c>
       <c r="I58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J58" s="3">
         <v>87000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>88500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>126000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>84000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>85000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>187600</v>
+      </c>
+      <c r="E59" s="3">
         <v>129700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>98200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>159000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>116700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>90600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>72400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>65200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>48900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>44200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>44300</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>434600</v>
+      </c>
+      <c r="E60" s="3">
         <v>275600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>225600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>295300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>224800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>187500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>211000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>204500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>208700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>155400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>149300</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>611900</v>
+      </c>
+      <c r="E61" s="3">
         <v>687000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>669200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>684700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>489400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>447900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>83800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>106700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>93800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>211700</v>
+      </c>
+      <c r="E62" s="3">
         <v>176100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>169200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>156000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>98400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>40800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>31400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>32000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>28000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2670,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2557,9 +2709,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2748,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1258300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1139000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1064000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1136100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>812700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>676400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>326400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>343300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>337600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>190300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>177500</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2807,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2843,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2882,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2921,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2960,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1341600</v>
+      </c>
+      <c r="E72" s="3">
         <v>1034000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>950900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>856500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>722100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>634400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>557800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>523300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>445100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>435300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>376600</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3038,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3077,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3116,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1893400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1608600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1495900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1478200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>927400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>814800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>739100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>727500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>686800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>587400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>501000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3194,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44191</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43463</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43099</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42371</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42000</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41636</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41272</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>283800</v>
+      </c>
+      <c r="E81" s="3">
         <v>130000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>139100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>164600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>119500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>104500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>80900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>98100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>88700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>75200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>86400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3297,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E83" s="3">
         <v>96200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>92500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>103200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>63000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>53100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>41600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>41900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34500</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32300</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3372,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3411,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3450,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3489,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3528,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>373300</v>
+      </c>
+      <c r="E89" s="3">
         <v>258000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>245300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>331800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>269200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>180100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>165800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>153100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>117400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>116200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>120800</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3587,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-90600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-56200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-61900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-74800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-65900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-46200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-44000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-32300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-35000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17600</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3662,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3701,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-499200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-51400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-56500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-382200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-96100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-511200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-44200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-104000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-185600</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-48600</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,44 +3760,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-46800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-44700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-40000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-31800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-27900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-24300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-21200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-18700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-16600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-14500</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3835,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3874,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,115 +3913,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-67800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-146300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>121900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-24700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>284200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-67700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-43300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>142200</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14100</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E101" s="3">
         <v>17600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-11400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-22800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-13500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4200</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3800</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-204700</v>
+      </c>
+      <c r="E102" s="3">
         <v>156400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>41400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>60100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>154600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-53700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>31200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>69800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>71400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>54300</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LFUS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LFUS_YR_FIN.xlsx
@@ -2970,7 +2970,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1341600</v>
+        <v>1268100</v>
       </c>
       <c r="E72" s="3">
         <v>1034000</v>

--- a/AAII_Financials/Yearly/LFUS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LFUS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>LFUS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44191</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43099</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42371</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42000</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41636</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41272</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2513900</v>
+      </c>
+      <c r="E8" s="3">
         <v>2079900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1445700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1503900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1718500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1221500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1056200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>867900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>852000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>757900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>667900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>665000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1507000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1308000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>944500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>957600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1065100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>715000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>643000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>537400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1053700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>461600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>409400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>408300</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1006900</v>
+      </c>
+      <c r="E10" s="3">
         <v>771900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>501200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>546300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>653400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>506500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>413100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>330500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-201700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>296200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>258500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>256700</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,47 +867,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E12" s="3">
         <v>65900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>52500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>80000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>87300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>50500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>42200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>30800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>31100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>19400</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -931,87 +948,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E14" s="3">
         <v>8900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>44000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>13000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>14800</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2300</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E15" s="3">
         <v>42700</v>
-      </c>
-      <c r="E15" s="3">
-        <v>40000</v>
       </c>
       <c r="F15" s="3">
         <v>40000</v>
       </c>
       <c r="G15" s="3">
+        <v>40000</v>
+      </c>
+      <c r="H15" s="3">
         <v>52200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>24700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>19300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>11900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>6600</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1024,86 +1050,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2013600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1694800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1283400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1311100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1493400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1003000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>925500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>763700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>718200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>638700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>568400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>551100</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>500300</v>
+      </c>
+      <c r="E18" s="3">
         <v>385100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>162300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>192800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>225000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>218500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>130600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>104200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>133800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>119200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>99500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>113900</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1119,203 +1152,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-25600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>20100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>590000</v>
+      </c>
+      <c r="E21" s="3">
         <v>458200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>278500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>280700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>330700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>280400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>185000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>152600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>178400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>161600</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>149000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E22" s="3">
         <v>18500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>21100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>22300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>22600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>13400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2900</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1700</v>
       </c>
       <c r="N22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>443000</v>
+      </c>
+      <c r="E23" s="3">
         <v>341000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>161300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>165900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>204900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>204000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>123300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>106900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>131600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>124200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>115100</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E24" s="3">
         <v>57200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>31300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>26800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>37100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>37500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>26100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>33500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>24700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>28100</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1352,87 +1401,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>373300</v>
+      </c>
+      <c r="E26" s="3">
         <v>283800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>130000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>139100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>167800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>166600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>104500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>80900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>98100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>88800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>75300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>87000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>373300</v>
+      </c>
+      <c r="E27" s="3">
         <v>283800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>130000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>139100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>167800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>166600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>104500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>80900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>98100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>88700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>75200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>86400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1469,9 +1527,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1481,17 +1542,17 @@
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-3200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-47000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
@@ -1508,9 +1569,12 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1547,9 +1611,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1586,87 +1653,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E32" s="3">
         <v>25600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-20100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>373300</v>
+      </c>
+      <c r="E33" s="3">
         <v>283800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>130000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>139100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>164600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>119500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>104500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>80900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>98100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>88700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>75200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>86400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1703,92 +1779,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>373300</v>
+      </c>
+      <c r="E35" s="3">
         <v>283800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>130000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>139100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>164600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>119500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>104500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>80900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>98100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>88700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>75200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>86400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44191</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43099</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42371</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42000</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41636</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41272</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1804,8 +1889,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1821,59 +1907,63 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>562600</v>
+      </c>
+      <c r="E41" s="3">
         <v>478500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>687500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>531100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>489700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>429700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>275100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>328800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>297600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>305200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>235400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>164000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>100</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
@@ -1881,299 +1971,323 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>3700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>4200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6900</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>14000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>313800</v>
+      </c>
+      <c r="E43" s="3">
         <v>277200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>235800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>207100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>235200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>184400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>385800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>287300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>135400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>127900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>92100</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>547700</v>
+      </c>
+      <c r="E44" s="3">
         <v>445700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>258000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>237500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>258200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>140800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>114100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>98600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>97400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>92600</v>
-      </c>
-      <c r="M44" s="3">
-        <v>75600</v>
       </c>
       <c r="N44" s="3">
         <v>75600</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>75600</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E45" s="3">
         <v>68800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>35900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>49300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>37500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>31500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>36900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>33000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>33900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32700</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1511800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1270200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1217300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1004400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1032500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>792300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>612100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>583900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>571500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>565600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>445500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>378400</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E47" s="3">
         <v>39200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>30500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>24100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>25400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>13900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>15200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>19000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>29700</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>538500</v>
+      </c>
+      <c r="E48" s="3">
         <v>467500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>361800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>366500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>339900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>250600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>217200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>162600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>158600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>150200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>120900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>118900</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1765300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1319300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1100400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1141800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1188200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>657300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>829600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>393200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>299900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>284800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>182400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>204900</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2210,9 +2324,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2249,48 +2366,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E52" s="3">
         <v>55500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>37500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>23000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>28300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>28900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>31400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>22400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>28700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2327,48 +2450,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3903700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3151700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2747600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2559900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2614300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1740100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1491200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1065500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1070800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1024400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>777700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>678400</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2384,8 +2513,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2401,242 +2531,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>208600</v>
+      </c>
+      <c r="E57" s="3">
         <v>222000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>146000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>117300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>126300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>101800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>90700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>51700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>50800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19900</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E58" s="3">
         <v>25000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>10000</v>
       </c>
       <c r="H58" s="3">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="I58" s="3">
         <v>6300</v>
       </c>
       <c r="J58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K58" s="3">
         <v>87000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>88500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>126000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>84000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>85000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>227700</v>
+      </c>
+      <c r="E59" s="3">
         <v>187600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>129700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>98200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>159000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>116700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>90600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>72400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>65200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>48900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>44200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>44300</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>572300</v>
+      </c>
+      <c r="E60" s="3">
         <v>434600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>275600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>225600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>295300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>224800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>187500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>211000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>204500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>208700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>155400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>149300</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>867300</v>
+      </c>
+      <c r="E61" s="3">
         <v>611900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>687000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>669200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>684700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>489400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>447900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>83800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>106700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>93800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>252700</v>
+      </c>
+      <c r="E62" s="3">
         <v>211700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>176100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>169200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>156000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>98400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>40800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>31400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>32000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>34800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>28000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2673,9 +2822,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2712,9 +2864,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2751,48 +2906,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1692500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1258300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1139000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1064000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1136100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>812700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>676400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>326400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>343300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>337600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>190300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>177500</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2808,8 +2969,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2846,9 +3008,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2885,9 +3050,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2924,9 +3092,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2963,48 +3134,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1585500</v>
+      </c>
+      <c r="E72" s="3">
         <v>1268100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1034000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>950900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>856500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>722100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>634400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>557800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>523300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>445100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>435300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>376600</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3041,9 +3218,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3080,9 +3260,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3119,48 +3302,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2211200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1893400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1608600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1495900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1478200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>927400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>814800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>739100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>727500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>686800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>587400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>501000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3197,92 +3386,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44191</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43099</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42371</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42000</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41636</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41272</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>373300</v>
+      </c>
+      <c r="E81" s="3">
         <v>283800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>130000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>139100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>164600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>119500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>104500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>80900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>98100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>88700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>75200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>86400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3298,47 +3496,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E83" s="3">
         <v>98600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>96200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>92500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>103200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>63000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>53100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>41600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>41900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34500</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32300</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3375,9 +3577,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3414,9 +3619,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3453,9 +3661,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3492,9 +3703,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3531,48 +3745,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>419700</v>
+      </c>
+      <c r="E89" s="3">
         <v>373300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>258000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>245300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>331800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>269200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>180100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>165800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>153100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>117400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>116200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>120800</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3588,47 +3808,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-104300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-90600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-56200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-61900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-74800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-65900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-46200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-44000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-32300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-35000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17600</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3665,9 +3889,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3704,48 +3931,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-636400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-499200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-51400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-56500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-382200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-96100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-511200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-44200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-104000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-185600</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-48600</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3761,47 +3994,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-49700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-46800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-44700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-40000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-31800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-27900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-24300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-21200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-18700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-16600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-14500</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3838,9 +4075,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3877,9 +4117,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3916,124 +4159,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>310200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-69000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-67800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-146300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>121900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-24700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>284200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-67700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-43300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>142200</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14100</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>17600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-11400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-22800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-13500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4200</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3800</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-204700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>156400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>41400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>60100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>154600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-53700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>31200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>69800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>71400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>54300</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
